--- a/Proyecto1/FSMDINERO1B-C-ESTADOS Y SALIDAS.xlsx
+++ b/Proyecto1/FSMDINERO1B-C-ESTADOS Y SALIDAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Gil\Desktop\Universidad\4to semestre\Electrónica digital 1\Digital_1\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{472A38CB-BB10-4826-A91D-87DF9F0AE137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9823055A-74A8-4F5C-93A3-7A838EB80ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{72E88FBF-148C-4654-9A18-14B6C52CA514}"/>
+    <workbookView xWindow="552" yWindow="2640" windowWidth="17280" windowHeight="8964" xr2:uid="{72E88FBF-148C-4654-9A18-14B6C52CA514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,15 +60,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,12 +82,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,78 +422,83 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
